--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
@@ -168,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +179,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,9 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +811,7 @@
       <c r="G10" s="1">
         <v>42827</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -839,7 +836,7 @@
       <c r="G11" s="1">
         <v>42827</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -864,7 +861,7 @@
       <c r="G12" s="1">
         <v>42827</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -889,7 +886,7 @@
       <c r="G13" s="1">
         <v>42827</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -914,7 +911,7 @@
       <c r="G14" s="1">
         <v>42827</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -964,7 +961,7 @@
       <c r="G16" s="1">
         <v>42827</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -979,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1039,7 @@
       <c r="G2" s="1">
         <v>42836</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1067,7 +1064,7 @@
       <c r="G3" s="1">
         <v>42836</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1092,7 +1089,7 @@
       <c r="G4" s="1">
         <v>42836</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1117,7 +1114,7 @@
       <c r="G5" s="1">
         <v>42836</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1142,7 +1139,7 @@
       <c r="G6" s="1">
         <v>42836</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1167,7 +1164,7 @@
       <c r="G7" s="1">
         <v>42836</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1192,7 +1189,7 @@
       <c r="G8" s="1">
         <v>42836</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1217,7 +1214,7 @@
       <c r="G9" s="1">
         <v>42836</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1242,7 +1239,7 @@
       <c r="G10" s="1">
         <v>42836</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1267,7 +1264,7 @@
       <c r="G11" s="1">
         <v>42836</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1292,7 +1289,7 @@
       <c r="G12" s="1">
         <v>42836</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1317,7 +1314,7 @@
       <c r="G13" s="1">
         <v>42836</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1342,7 +1339,7 @@
       <c r="G14" s="1">
         <v>42836</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1367,7 +1364,7 @@
       <c r="G15" s="1">
         <v>42836</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1392,7 +1389,7 @@
       <c r="G16" s="1">
         <v>42836</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mths\Desktop\Projeto DAC\DACSistemaRH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
@@ -220,12 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +552,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +865,7 @@
       <c r="G12" s="1">
         <v>42827</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -936,7 +940,7 @@
       <c r="G15" s="1">
         <v>42827</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">

--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,7 @@
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\DACSistemaRH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
-    <sheet name="Cronograma Casos de Uso" sheetId="2" r:id="rId2"/>
+    <sheet name="Cronograma Diagrama de Classes" sheetId="3" r:id="rId2"/>
+    <sheet name="Cronograma Casos de Uso" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -163,13 +164,22 @@
   </si>
   <si>
     <t>Clóvis</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>19/4/2017</t>
+  </si>
+  <si>
+    <t>Todos participarao na elaboracao da tarefa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +194,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,18 +218,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,22 +243,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -267,6 +379,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:F3"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Sistema"/>
+    <tableColumn id="4" name="Comentários"/>
+    <tableColumn id="5" name="Responsável"/>
+    <tableColumn id="6" name="Data"/>
+    <tableColumn id="7" name="Status" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H16" totalsRowShown="0">
   <autoFilter ref="A1:H16"/>
   <tableColumns count="8">
@@ -551,7 +678,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +941,7 @@
       <c r="G10" s="1">
         <v>42827</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -839,7 +966,7 @@
       <c r="G11" s="1">
         <v>42827</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -864,7 +991,7 @@
       <c r="G12" s="1">
         <v>42827</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -889,7 +1016,7 @@
       <c r="G13" s="1">
         <v>42827</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -914,7 +1041,7 @@
       <c r="G14" s="1">
         <v>42827</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -939,7 +1066,7 @@
       <c r="G15" s="1">
         <v>42827</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -964,7 +1091,7 @@
       <c r="G16" s="1">
         <v>42827</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,10 +1104,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1251,7 @@
       <c r="G2" s="1">
         <v>42836</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1192,7 +1401,7 @@
       <c r="G8" s="1">
         <v>42836</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1217,7 +1426,7 @@
       <c r="G9" s="1">
         <v>42836</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1242,7 +1451,7 @@
       <c r="G10" s="1">
         <v>42836</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1267,7 +1476,7 @@
       <c r="G11" s="1">
         <v>42836</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1292,7 +1501,7 @@
       <c r="G12" s="1">
         <v>42836</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1312,12 +1521,12 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1">
         <v>42836</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1342,11 +1551,11 @@
       <c r="G14" s="1">
         <v>42836</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1367,7 +1576,7 @@
       <c r="G15" s="1">
         <v>42836</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1387,12 +1596,12 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1">
         <v>42836</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
